--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H2">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N2">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P2">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q2">
-        <v>0.3719405665916667</v>
+        <v>4.485730531667</v>
       </c>
       <c r="R2">
-        <v>3.347465099325</v>
+        <v>40.371574785003</v>
       </c>
       <c r="S2">
-        <v>0.01286249314338964</v>
+        <v>0.07329225286326156</v>
       </c>
       <c r="T2">
-        <v>0.01286249314338964</v>
+        <v>0.07329225286326155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H3">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.660931</v>
       </c>
       <c r="O3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P3">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q3">
-        <v>4.754941247683889</v>
+        <v>16.06654198575922</v>
       </c>
       <c r="R3">
-        <v>42.794471229155</v>
+        <v>144.598877871833</v>
       </c>
       <c r="S3">
-        <v>0.1644359467320469</v>
+        <v>0.2625108774469491</v>
       </c>
       <c r="T3">
-        <v>0.1644359467320469</v>
+        <v>0.2625108774469491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H4">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N4">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P4">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q4">
-        <v>6.489540400464446</v>
+        <v>21.92760496528311</v>
       </c>
       <c r="R4">
-        <v>58.40586360418001</v>
+        <v>197.348444687548</v>
       </c>
       <c r="S4">
-        <v>0.2244220620235895</v>
+        <v>0.3582746570387489</v>
       </c>
       <c r="T4">
-        <v>0.2244220620235895</v>
+        <v>0.3582746570387489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N5">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P5">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q5">
-        <v>0.3090107442</v>
+        <v>1.10295032868</v>
       </c>
       <c r="R5">
-        <v>2.7810966978</v>
+        <v>9.926552958119998</v>
       </c>
       <c r="S5">
-        <v>0.01068624650150028</v>
+        <v>0.01802108125188493</v>
       </c>
       <c r="T5">
-        <v>0.01068624650150028</v>
+        <v>0.01802108125188493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.660931</v>
       </c>
       <c r="O6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P6">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q6">
-        <v>3.95043742348</v>
+        <v>3.950437423479999</v>
       </c>
       <c r="R6">
-        <v>35.55393681132</v>
+        <v>35.55393681131999</v>
       </c>
       <c r="S6">
-        <v>0.1366144992962965</v>
+        <v>0.06454611049821338</v>
       </c>
       <c r="T6">
-        <v>0.1366144992962965</v>
+        <v>0.06454611049821338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N7">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O7">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P7">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q7">
-        <v>5.391554158880001</v>
+        <v>5.391554158879999</v>
       </c>
       <c r="R7">
-        <v>48.52398742992001</v>
+        <v>48.52398742991999</v>
       </c>
       <c r="S7">
-        <v>0.1864513705409882</v>
+        <v>0.08809248525941932</v>
       </c>
       <c r="T7">
-        <v>0.1864513705409882</v>
+        <v>0.08809248525941932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.095455</v>
+        <v>0.3407069999999999</v>
       </c>
       <c r="N8">
-        <v>0.286365</v>
+        <v>1.022121</v>
       </c>
       <c r="O8">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="P8">
-        <v>0.0320185130770913</v>
+        <v>0.1055965976712818</v>
       </c>
       <c r="Q8">
-        <v>0.2449177071783333</v>
+        <v>0.8741834085129997</v>
       </c>
       <c r="R8">
-        <v>2.204259364605</v>
+        <v>7.867650676616998</v>
       </c>
       <c r="S8">
-        <v>0.008469773432201377</v>
+        <v>0.01428326355613529</v>
       </c>
       <c r="T8">
-        <v>0.008469773432201377</v>
+        <v>0.01428326355613529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.660931</v>
       </c>
       <c r="O9">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="P9">
-        <v>0.409329237503986</v>
+        <v>0.3782153560188308</v>
       </c>
       <c r="Q9">
-        <v>3.131062897554111</v>
+        <v>3.13106289755411</v>
       </c>
       <c r="R9">
-        <v>28.179566077987</v>
+        <v>28.17956607798699</v>
       </c>
       <c r="S9">
-        <v>0.1082787914756427</v>
+        <v>0.05115836807366832</v>
       </c>
       <c r="T9">
-        <v>0.1082787914756427</v>
+        <v>0.05115836807366833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.665478666666667</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N10">
-        <v>4.996436000000001</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O10">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="P10">
-        <v>0.5586522494189228</v>
+        <v>0.5161880463098875</v>
       </c>
       <c r="Q10">
-        <v>4.273272394263556</v>
+        <v>4.273272394263554</v>
       </c>
       <c r="R10">
-        <v>38.45945154837201</v>
+        <v>38.45945154837199</v>
       </c>
       <c r="S10">
-        <v>0.1477788168543451</v>
+        <v>0.06982090401171916</v>
       </c>
       <c r="T10">
-        <v>0.1477788168543451</v>
+        <v>0.06982090401171917</v>
       </c>
     </row>
   </sheetData>
